--- a/dailywagespay_report.xlsx
+++ b/dailywagespay_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>DAILY WAGES PAYMENT REPORT</t>
   </si>
@@ -23,7 +23,7 @@
     <t>FORM II M.W. RULES 1963 Rule 27</t>
   </si>
   <si>
-    <t>November-2019</t>
+    <t>January-2020</t>
   </si>
   <si>
     <t>SR. NO.</t>
@@ -86,7 +86,25 @@
     <t>MR. AKSHAY M NAIR</t>
   </si>
   <si>
-    <t>qrre</t>
+    <t>NEFT1234</t>
+  </si>
+  <si>
+    <t>MR. PRAVIN RAVINDRA ROY</t>
+  </si>
+  <si>
+    <t>MR. MADHAV EX SIR</t>
+  </si>
+  <si>
+    <t>MR. RAJA RAM SALVI</t>
+  </si>
+  <si>
+    <t>MR. ABHIJEET RAMESH RAWLE</t>
+  </si>
+  <si>
+    <t>MR. TEST M NAIR</t>
+  </si>
+  <si>
+    <t>MR. RANDOM M NAIR</t>
   </si>
   <si>
     <t>Total</t>
@@ -169,6 +187,36 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="666750" cy="285750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -475,7 +523,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,13 +532,13 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="30.563965" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="4.570313" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="19.995117" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="12.854004" bestFit="true" customWidth="true" style="0"/>
@@ -642,13 +690,13 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5">
         <v>14125</v>
@@ -678,10 +726,10 @@
         <v>459</v>
       </c>
       <c r="P5">
-        <v>23634</v>
+        <v>4155</v>
       </c>
       <c r="Q5">
-        <v>64262</v>
+        <v>17360</v>
       </c>
       <c r="R5" t="s">
         <v>23</v>
@@ -689,9 +737,20 @@
       <c r="S5"/>
     </row>
     <row r="6" spans="1:19">
+      <c r="A6">
+        <v>2</v>
+      </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6"/>
       <c r="G6">
         <v>14125</v>
       </c>
@@ -719,44 +778,342 @@
       <c r="O6">
         <v>459</v>
       </c>
-      <c r="P6">
-        <v>23634</v>
-      </c>
-      <c r="Q6">
-        <v>64262</v>
-      </c>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7">
+        <v>14125</v>
+      </c>
+      <c r="H7">
+        <v>3531</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>17756</v>
+      </c>
+      <c r="K7">
+        <v>200</v>
+      </c>
+      <c r="L7">
+        <v>1695</v>
+      </c>
+      <c r="M7">
+        <v>1695</v>
+      </c>
+      <c r="N7">
+        <v>106</v>
+      </c>
+      <c r="O7">
+        <v>459</v>
+      </c>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
     </row>
     <row r="8" spans="1:19">
+      <c r="A8">
+        <v>4</v>
+      </c>
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="D8">
-        <v>3390</v>
-      </c>
+      <c r="C8">
+        <v>48</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8">
+        <v>14125</v>
+      </c>
+      <c r="H8">
+        <v>3531</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>17756</v>
+      </c>
+      <c r="K8">
+        <v>200</v>
+      </c>
+      <c r="L8">
+        <v>1695</v>
+      </c>
+      <c r="M8">
+        <v>1695</v>
+      </c>
+      <c r="N8">
+        <v>106</v>
+      </c>
+      <c r="O8">
+        <v>459</v>
+      </c>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
     </row>
     <row r="9" spans="1:19">
+      <c r="A9">
+        <v>5</v>
+      </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>565</v>
-      </c>
+      <c r="C9">
+        <v>32</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9">
+        <v>14125</v>
+      </c>
+      <c r="H9">
+        <v>3531</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>17756</v>
+      </c>
+      <c r="K9">
+        <v>200</v>
+      </c>
+      <c r="L9">
+        <v>1695</v>
+      </c>
+      <c r="M9">
+        <v>1695</v>
+      </c>
+      <c r="N9">
+        <v>106</v>
+      </c>
+      <c r="O9">
+        <v>459</v>
+      </c>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
     </row>
     <row r="10" spans="1:19">
+      <c r="A10">
+        <v>6</v>
+      </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>43</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10">
+        <v>15545</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10">
+        <v>121212</v>
+      </c>
+      <c r="H10">
+        <v>11000</v>
+      </c>
+      <c r="I10">
+        <v>1000</v>
+      </c>
+      <c r="J10">
+        <v>148757</v>
+      </c>
+      <c r="K10">
+        <v>500</v>
+      </c>
+      <c r="L10">
+        <v>14545</v>
+      </c>
+      <c r="M10">
+        <v>14545</v>
+      </c>
+      <c r="N10">
+        <v>909</v>
+      </c>
+      <c r="O10">
+        <v>3939</v>
+      </c>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+    </row>
+    <row r="11" spans="1:19" customHeight="1" ht="30">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10">
-        <v>3955</v>
+      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11">
+        <v>15545</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11">
+        <v>10000</v>
+      </c>
+      <c r="H11">
+        <v>3135</v>
+      </c>
+      <c r="I11">
+        <v>1212</v>
+      </c>
+      <c r="J11">
+        <v>29892</v>
+      </c>
+      <c r="K11">
+        <v>200</v>
+      </c>
+      <c r="L11">
+        <v>1200</v>
+      </c>
+      <c r="M11">
+        <v>1200</v>
+      </c>
+      <c r="N11">
+        <v>75</v>
+      </c>
+      <c r="O11">
+        <v>325</v>
+      </c>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>201837</v>
+      </c>
+      <c r="H13">
+        <v>30998</v>
+      </c>
+      <c r="I13">
+        <v>2712</v>
+      </c>
+      <c r="J13">
+        <v>266637</v>
+      </c>
+      <c r="K13">
+        <v>1700</v>
+      </c>
+      <c r="L13">
+        <v>24220</v>
+      </c>
+      <c r="M13">
+        <v>24220</v>
+      </c>
+      <c r="N13">
+        <v>1514</v>
+      </c>
+      <c r="O13">
+        <v>6559</v>
+      </c>
+      <c r="P13">
+        <v>4155</v>
+      </c>
+      <c r="Q13">
+        <v>17360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>48440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>8073</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>56513</v>
       </c>
     </row>
   </sheetData>
